--- a/output/dataset_description_targets.xlsx
+++ b/output/dataset_description_targets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Data Type</t>
   </si>
@@ -52,10 +52,22 @@
     <t>int64</t>
   </si>
   <si>
-    <t>float64</t>
+    <t>object</t>
+  </si>
+  <si>
+    <t>int32</t>
   </si>
   <si>
     <t>{}</t>
+  </si>
+  <si>
+    <t>{'Inventive step - (no)': 35, 'Basis of decision - text or agreement to text withdrawn by patent proprietor, Basis of decision - patent revoked': 29, 'Inventive step - (yes)': 18, 'Basis of decision - text or agreement to text withdrawn by patent proprietor': 16, '': 14}</t>
+  </si>
+  <si>
+    <t>{' /': 444, 'T 0073/84': 33, 'G 0003/14': 11, 'G 0002/10': 10, 'G 0002/21': 8}</t>
+  </si>
+  <si>
+    <t>{'': 159, 'Henkel AG &amp; Co. KGaA': 29, 'ARKEMA FRANCE': 11, 'N.V. Nutricia': 11, 'Generics (U.K.) Limited': 10}</t>
   </si>
 </sst>
 </file>
@@ -413,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>0.8403361344537815</v>
@@ -491,7 +503,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>952</v>
@@ -503,30 +515,15 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>758</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0.4222689075630252</v>
-      </c>
-      <c r="H3">
-        <v>0.4941805388771433</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>952</v>
@@ -538,25 +535,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2.189075630252101</v>
-      </c>
-      <c r="H4">
-        <v>2.781183278301223</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -573,30 +555,15 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>545</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>0.4222689075630252</v>
-      </c>
-      <c r="H5">
-        <v>0.351694628908761</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>952</v>
@@ -608,25 +575,60 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>0.4222689075630252</v>
       </c>
       <c r="H6">
-        <v>0.4296709071835572</v>
+        <v>0.4941805388771433</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2758620689655172</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>952</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>2.189075630252101</v>
+      </c>
+      <c r="H7">
+        <v>2.781183278301223</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
